--- a/Result/10-10-24/NASDAQstock_10-10-24period252RS90.xlsx
+++ b/Result/10-10-24/NASDAQstock_10-10-24period252RS90.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="新細明體"/>
       <family val="2"/>
@@ -61,6 +61,9 @@
     </font>
     <font>
       <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <color rgb="0000FF00"/>
     </font>
   </fonts>
   <fills count="4">
@@ -110,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -124,6 +127,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2416,7 +2420,7 @@
       <c r="G15" t="n">
         <v>1.69</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="11" t="n">
         <v>-1.00644614348758</v>
       </c>
       <c r="I15" t="n">
@@ -2544,7 +2548,7 @@
       <c r="G16" t="n">
         <v>1.41</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="11" t="n">
         <v>-1.306952199469399</v>
       </c>
       <c r="I16" t="n">
@@ -2668,7 +2672,7 @@
       <c r="G17" t="n">
         <v>1.69</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="11" t="n">
         <v>-1.00644614348758</v>
       </c>
       <c r="I17" t="n">
@@ -2928,7 +2932,7 @@
       <c r="G19" t="n">
         <v>1.49</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="11" t="n">
         <v>-1.221093326331737</v>
       </c>
       <c r="I19" t="n">
@@ -3688,13 +3692,13 @@
       <c r="E25" t="n">
         <v>1.03</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="11" t="n">
         <v>-1.191902506341802</v>
       </c>
       <c r="G25" t="n">
         <v>1.63</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="11" t="n">
         <v>-1.070840298340827</v>
       </c>
       <c r="I25" t="n">
@@ -3948,7 +3952,7 @@
       <c r="G27" t="n">
         <v>1.44</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27" s="11" t="n">
         <v>-1.274755122042776</v>
       </c>
       <c r="I27" t="n">
@@ -5087,7 +5091,7 @@
       <c r="E36" t="n">
         <v>1.15</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" s="11" t="n">
         <v>-1.019986111351098</v>
       </c>
       <c r="G36" t="n">
@@ -5341,7 +5345,7 @@
       <c r="E38" t="n">
         <v>0.92</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38" s="11" t="n">
         <v>-1.349492535083281</v>
       </c>
       <c r="G38" t="n">
@@ -6366,13 +6370,13 @@
       <c r="E46" t="n">
         <v>0.93</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46" s="11" t="n">
         <v>-1.335166168834055</v>
       </c>
       <c r="G46" t="n">
         <v>1.44</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46" s="11" t="n">
         <v>-1.274755122042776</v>
       </c>
       <c r="I46" t="n">
@@ -7517,7 +7521,7 @@
       <c r="G55" t="n">
         <v>1.64</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55" s="11" t="n">
         <v>-1.060107939198619</v>
       </c>
       <c r="I55" t="n">
@@ -7897,13 +7901,13 @@
       <c r="E58" t="n">
         <v>0.77</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58" s="11" t="n">
         <v>-1.564388028821661</v>
       </c>
       <c r="G58" t="n">
         <v>1.2</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58" s="11" t="n">
         <v>-1.532331741455764</v>
       </c>
       <c r="I58" t="n">
@@ -8534,7 +8538,7 @@
       <c r="E63" t="n">
         <v>1.08</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63" s="11" t="n">
         <v>-1.120270675095675</v>
       </c>
       <c r="G63" t="n">
@@ -9179,7 +9183,7 @@
       <c r="G68" t="n">
         <v>1.48</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68" s="11" t="n">
         <v>-1.231825685473944</v>
       </c>
       <c r="I68" t="n">
@@ -9427,7 +9431,7 @@
       <c r="E70" t="n">
         <v>0.92</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70" s="11" t="n">
         <v>-1.349492535083281</v>
       </c>
       <c r="G70" t="n">
@@ -9942,7 +9946,7 @@
       <c r="E74" t="n">
         <v>0.8</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74" s="11" t="n">
         <v>-1.521408930073985</v>
       </c>
       <c r="G74" t="n">
@@ -10080,7 +10084,7 @@
       <c r="G75" t="n">
         <v>1.68</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75" s="11" t="n">
         <v>-1.017178502629787</v>
       </c>
       <c r="I75" t="n">
@@ -11348,13 +11352,13 @@
       <c r="E85" t="n">
         <v>0.96</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85" s="11" t="n">
         <v>-1.29218707008638</v>
       </c>
       <c r="G85" t="n">
         <v>1.62</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85" s="11" t="n">
         <v>-1.081572657483034</v>
       </c>
       <c r="I85" t="n">
@@ -12874,13 +12878,13 @@
       <c r="E97" t="n">
         <v>0.89</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97" s="11" t="n">
         <v>-1.392471633830957</v>
       </c>
       <c r="G97" t="n">
         <v>1.1</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97" s="11" t="n">
         <v>-1.639655332877842</v>
       </c>
       <c r="I97" t="n">
@@ -14652,13 +14656,13 @@
       <c r="E111" t="n">
         <v>1.05</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111" s="11" t="n">
         <v>-1.163249773843351</v>
       </c>
       <c r="G111" t="n">
         <v>1.58</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H111" s="11" t="n">
         <v>-1.124502094051866</v>
       </c>
       <c r="I111" t="n">
@@ -14906,7 +14910,7 @@
       <c r="E113" t="n">
         <v>1.07</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113" s="11" t="n">
         <v>-1.134597041344901</v>
       </c>
       <c r="G113" t="n">

--- a/Result/10-10-24/NASDAQstock_10-10-24period252RS90.xlsx
+++ b/Result/10-10-24/NASDAQstock_10-10-24period252RS90.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="新細明體"/>
       <family val="2"/>
@@ -64,6 +64,9 @@
     </font>
     <font>
       <color rgb="0000FF00"/>
+    </font>
+    <font>
+      <color rgb="00008000"/>
     </font>
   </fonts>
   <fills count="4">
@@ -113,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -128,6 +131,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2420,7 +2424,7 @@
       <c r="G15" t="n">
         <v>1.69</v>
       </c>
-      <c r="H15" s="11" t="n">
+      <c r="H15" s="12" t="n">
         <v>-1.00644614348758</v>
       </c>
       <c r="I15" t="n">
@@ -2548,7 +2552,7 @@
       <c r="G16" t="n">
         <v>1.41</v>
       </c>
-      <c r="H16" s="11" t="n">
+      <c r="H16" s="12" t="n">
         <v>-1.306952199469399</v>
       </c>
       <c r="I16" t="n">
@@ -2672,7 +2676,7 @@
       <c r="G17" t="n">
         <v>1.69</v>
       </c>
-      <c r="H17" s="11" t="n">
+      <c r="H17" s="12" t="n">
         <v>-1.00644614348758</v>
       </c>
       <c r="I17" t="n">
@@ -2932,7 +2936,7 @@
       <c r="G19" t="n">
         <v>1.49</v>
       </c>
-      <c r="H19" s="11" t="n">
+      <c r="H19" s="12" t="n">
         <v>-1.221093326331737</v>
       </c>
       <c r="I19" t="n">
@@ -3692,13 +3696,13 @@
       <c r="E25" t="n">
         <v>1.03</v>
       </c>
-      <c r="F25" s="11" t="n">
+      <c r="F25" s="12" t="n">
         <v>-1.191902506341802</v>
       </c>
       <c r="G25" t="n">
         <v>1.63</v>
       </c>
-      <c r="H25" s="11" t="n">
+      <c r="H25" s="12" t="n">
         <v>-1.070840298340827</v>
       </c>
       <c r="I25" t="n">
@@ -3952,7 +3956,7 @@
       <c r="G27" t="n">
         <v>1.44</v>
       </c>
-      <c r="H27" s="11" t="n">
+      <c r="H27" s="12" t="n">
         <v>-1.274755122042776</v>
       </c>
       <c r="I27" t="n">
@@ -5091,7 +5095,7 @@
       <c r="E36" t="n">
         <v>1.15</v>
       </c>
-      <c r="F36" s="11" t="n">
+      <c r="F36" s="12" t="n">
         <v>-1.019986111351098</v>
       </c>
       <c r="G36" t="n">
@@ -5345,7 +5349,7 @@
       <c r="E38" t="n">
         <v>0.92</v>
       </c>
-      <c r="F38" s="11" t="n">
+      <c r="F38" s="12" t="n">
         <v>-1.349492535083281</v>
       </c>
       <c r="G38" t="n">
@@ -6370,13 +6374,13 @@
       <c r="E46" t="n">
         <v>0.93</v>
       </c>
-      <c r="F46" s="11" t="n">
+      <c r="F46" s="12" t="n">
         <v>-1.335166168834055</v>
       </c>
       <c r="G46" t="n">
         <v>1.44</v>
       </c>
-      <c r="H46" s="11" t="n">
+      <c r="H46" s="12" t="n">
         <v>-1.274755122042776</v>
       </c>
       <c r="I46" t="n">
@@ -7521,7 +7525,7 @@
       <c r="G55" t="n">
         <v>1.64</v>
       </c>
-      <c r="H55" s="11" t="n">
+      <c r="H55" s="12" t="n">
         <v>-1.060107939198619</v>
       </c>
       <c r="I55" t="n">
@@ -7901,13 +7905,13 @@
       <c r="E58" t="n">
         <v>0.77</v>
       </c>
-      <c r="F58" s="11" t="n">
+      <c r="F58" s="12" t="n">
         <v>-1.564388028821661</v>
       </c>
       <c r="G58" t="n">
         <v>1.2</v>
       </c>
-      <c r="H58" s="11" t="n">
+      <c r="H58" s="12" t="n">
         <v>-1.532331741455764</v>
       </c>
       <c r="I58" t="n">
@@ -8538,7 +8542,7 @@
       <c r="E63" t="n">
         <v>1.08</v>
       </c>
-      <c r="F63" s="11" t="n">
+      <c r="F63" s="12" t="n">
         <v>-1.120270675095675</v>
       </c>
       <c r="G63" t="n">
@@ -9183,7 +9187,7 @@
       <c r="G68" t="n">
         <v>1.48</v>
       </c>
-      <c r="H68" s="11" t="n">
+      <c r="H68" s="12" t="n">
         <v>-1.231825685473944</v>
       </c>
       <c r="I68" t="n">
@@ -9431,7 +9435,7 @@
       <c r="E70" t="n">
         <v>0.92</v>
       </c>
-      <c r="F70" s="11" t="n">
+      <c r="F70" s="12" t="n">
         <v>-1.349492535083281</v>
       </c>
       <c r="G70" t="n">
@@ -9946,7 +9950,7 @@
       <c r="E74" t="n">
         <v>0.8</v>
       </c>
-      <c r="F74" s="11" t="n">
+      <c r="F74" s="12" t="n">
         <v>-1.521408930073985</v>
       </c>
       <c r="G74" t="n">
@@ -10084,7 +10088,7 @@
       <c r="G75" t="n">
         <v>1.68</v>
       </c>
-      <c r="H75" s="11" t="n">
+      <c r="H75" s="12" t="n">
         <v>-1.017178502629787</v>
       </c>
       <c r="I75" t="n">
@@ -11352,13 +11356,13 @@
       <c r="E85" t="n">
         <v>0.96</v>
       </c>
-      <c r="F85" s="11" t="n">
+      <c r="F85" s="12" t="n">
         <v>-1.29218707008638</v>
       </c>
       <c r="G85" t="n">
         <v>1.62</v>
       </c>
-      <c r="H85" s="11" t="n">
+      <c r="H85" s="12" t="n">
         <v>-1.081572657483034</v>
       </c>
       <c r="I85" t="n">
@@ -12878,13 +12882,13 @@
       <c r="E97" t="n">
         <v>0.89</v>
       </c>
-      <c r="F97" s="11" t="n">
+      <c r="F97" s="12" t="n">
         <v>-1.392471633830957</v>
       </c>
       <c r="G97" t="n">
         <v>1.1</v>
       </c>
-      <c r="H97" s="11" t="n">
+      <c r="H97" s="12" t="n">
         <v>-1.639655332877842</v>
       </c>
       <c r="I97" t="n">
@@ -14656,13 +14660,13 @@
       <c r="E111" t="n">
         <v>1.05</v>
       </c>
-      <c r="F111" s="11" t="n">
+      <c r="F111" s="12" t="n">
         <v>-1.163249773843351</v>
       </c>
       <c r="G111" t="n">
         <v>1.58</v>
       </c>
-      <c r="H111" s="11" t="n">
+      <c r="H111" s="12" t="n">
         <v>-1.124502094051866</v>
       </c>
       <c r="I111" t="n">
@@ -14910,7 +14914,7 @@
       <c r="E113" t="n">
         <v>1.07</v>
       </c>
-      <c r="F113" s="11" t="n">
+      <c r="F113" s="12" t="n">
         <v>-1.134597041344901</v>
       </c>
       <c r="G113" t="n">

--- a/Result/10-10-24/NASDAQstock_10-10-24period252RS90.xlsx
+++ b/Result/10-10-24/NASDAQstock_10-10-24period252RS90.xlsx
@@ -69,7 +69,7 @@
       <color rgb="00008000"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -86,6 +86,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
         <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA500"/>
+        <bgColor rgb="00FFA500"/>
       </patternFill>
     </fill>
   </fills>
@@ -116,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -132,6 +138,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -752,7 +760,7 @@
       <c r="N2" t="n">
         <v>1.18</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="12" t="inlineStr">
         <is>
           <t>MVP</t>
         </is>
@@ -884,7 +892,7 @@
       <c r="N3" t="n">
         <v>1.33</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="12" t="inlineStr">
         <is>
           <t>MVP</t>
         </is>
@@ -1033,7 +1041,7 @@
       <c r="T4" t="n">
         <v>13.88888888888889</v>
       </c>
-      <c r="U4" s="9" t="b">
+      <c r="U4" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V4" t="b">
@@ -1427,7 +1435,7 @@
       <c r="T7" s="2" t="n">
         <v>8.888888888888888</v>
       </c>
-      <c r="U7" s="10" t="b">
+      <c r="U7" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V7" t="b">
@@ -1555,7 +1563,7 @@
       <c r="T8" s="2" t="n">
         <v>4.444444444444444</v>
       </c>
-      <c r="U8" s="10" t="b">
+      <c r="U8" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V8" t="b">
@@ -2075,7 +2083,7 @@
       <c r="T12" s="2" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="U12" s="10" t="b">
+      <c r="U12" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V12" t="b">
@@ -2331,7 +2339,7 @@
       <c r="T14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U14" s="10" t="b">
+      <c r="U14" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V14" t="b">
@@ -2461,7 +2469,7 @@
       <c r="T15" s="2" t="n">
         <v>5.555555555555555</v>
       </c>
-      <c r="U15" s="10" t="b">
+      <c r="U15" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V15" t="b">
@@ -2713,7 +2721,7 @@
       <c r="T17" s="2" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="U17" s="10" t="b">
+      <c r="U17" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V17" t="b">
@@ -2972,7 +2980,7 @@
       <c r="T19" t="n">
         <v>5.555555555555555</v>
       </c>
-      <c r="U19" s="9" t="b">
+      <c r="U19" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V19" t="b">
@@ -3480,7 +3488,7 @@
       <c r="T23" t="n">
         <v>0</v>
       </c>
-      <c r="U23" s="9" t="b">
+      <c r="U23" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V23" t="b">
@@ -3609,7 +3617,7 @@
       <c r="T24" t="n">
         <v>4.444444444444444</v>
       </c>
-      <c r="U24" s="9" t="b">
+      <c r="U24" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V24" t="b">
@@ -3738,7 +3746,7 @@
       <c r="T25" t="n">
         <v>2.222222222222222</v>
       </c>
-      <c r="U25" s="9" t="b">
+      <c r="U25" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V25" t="b">
@@ -3992,7 +4000,7 @@
       <c r="T27" t="n">
         <v>0</v>
       </c>
-      <c r="U27" s="9" t="b">
+      <c r="U27" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V27" t="b">
@@ -4246,7 +4254,7 @@
       <c r="T29" t="n">
         <v>2.777777777777778</v>
       </c>
-      <c r="U29" s="9" t="b">
+      <c r="U29" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V29" t="b">
@@ -4373,7 +4381,7 @@
       <c r="T30" t="n">
         <v>10</v>
       </c>
-      <c r="U30" s="9" t="b">
+      <c r="U30" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V30" t="b">
@@ -5137,7 +5145,7 @@
       <c r="T36" t="n">
         <v>0.5555555555555555</v>
       </c>
-      <c r="U36" s="9" t="b">
+      <c r="U36" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V36" t="b">
@@ -5264,7 +5272,7 @@
       <c r="T37" t="n">
         <v>0</v>
       </c>
-      <c r="U37" s="9" t="b">
+      <c r="U37" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V37" t="b">
@@ -5391,7 +5399,7 @@
       <c r="T38" t="n">
         <v>6.111111111111111</v>
       </c>
-      <c r="U38" s="9" t="b">
+      <c r="U38" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V38" t="b">
@@ -5503,7 +5511,7 @@
       <c r="N39" t="n">
         <v>1.1</v>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="O39" s="12" t="inlineStr">
         <is>
           <t>MVP</t>
         </is>
@@ -6033,7 +6041,7 @@
       <c r="T43" t="n">
         <v>0</v>
       </c>
-      <c r="U43" s="9" t="b">
+      <c r="U43" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V43" t="b">
@@ -6160,7 +6168,7 @@
       <c r="T44" t="n">
         <v>0</v>
       </c>
-      <c r="U44" s="9" t="b">
+      <c r="U44" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V44" t="b">
@@ -6287,7 +6295,7 @@
       <c r="T45" t="n">
         <v>0</v>
       </c>
-      <c r="U45" s="9" t="b">
+      <c r="U45" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V45" t="b">
@@ -6416,7 +6424,7 @@
       <c r="T46" t="n">
         <v>6.111111111111111</v>
       </c>
-      <c r="U46" s="9" t="b">
+      <c r="U46" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V46" t="b">
@@ -6797,7 +6805,7 @@
       <c r="T49" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="U49" s="9" t="b">
+      <c r="U49" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V49" t="b">
@@ -7178,7 +7186,7 @@
       <c r="T52" t="n">
         <v>10</v>
       </c>
-      <c r="U52" s="9" t="b">
+      <c r="U52" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V52" t="b">
@@ -7434,7 +7442,7 @@
       <c r="T54" t="n">
         <v>0</v>
       </c>
-      <c r="U54" s="9" t="b">
+      <c r="U54" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V54" t="b">
@@ -7673,7 +7681,7 @@
       <c r="N56" t="n">
         <v>1.28</v>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="O56" s="12" t="inlineStr">
         <is>
           <t>MVP</t>
         </is>
@@ -8074,7 +8082,7 @@
       <c r="T59" t="n">
         <v>6.111111111111111</v>
       </c>
-      <c r="U59" s="9" t="b">
+      <c r="U59" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V59" t="b">
@@ -8457,7 +8465,7 @@
       <c r="T62" t="n">
         <v>0</v>
       </c>
-      <c r="U62" s="9" t="b">
+      <c r="U62" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V62" t="b">
@@ -8711,7 +8719,7 @@
       <c r="T64" t="n">
         <v>4.444444444444444</v>
       </c>
-      <c r="U64" s="9" t="b">
+      <c r="U64" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V64" t="b">
@@ -8838,7 +8846,7 @@
       <c r="T65" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U65" s="10" t="b">
+      <c r="U65" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V65" t="b">
@@ -9223,7 +9231,7 @@
       <c r="T68" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U68" s="10" t="b">
+      <c r="U68" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V68" t="b">
@@ -9482,7 +9490,7 @@
       <c r="T70" s="2" t="n">
         <v>0.5555555555555555</v>
       </c>
-      <c r="U70" s="10" t="b">
+      <c r="U70" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V70" t="b">
@@ -9865,7 +9873,7 @@
       <c r="T73" s="2" t="n">
         <v>0.5555555555555555</v>
       </c>
-      <c r="U73" s="10" t="b">
+      <c r="U73" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V73" t="b">
@@ -9997,7 +10005,7 @@
       <c r="T74" s="2" t="n">
         <v>1.111111111111111</v>
       </c>
-      <c r="U74" s="10" t="b">
+      <c r="U74" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V74" t="b">
@@ -10124,7 +10132,7 @@
       <c r="T75" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U75" s="10" t="b">
+      <c r="U75" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V75" t="b">
@@ -10251,7 +10259,7 @@
       <c r="T76" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U76" s="10" t="b">
+      <c r="U76" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V76" t="b">
@@ -10507,7 +10515,7 @@
       <c r="T78" s="2" t="n">
         <v>1.111111111111111</v>
       </c>
-      <c r="U78" s="10" t="b">
+      <c r="U78" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V78" t="b">
@@ -10634,7 +10642,7 @@
       <c r="T79" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U79" s="10" t="b">
+      <c r="U79" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V79" t="b">
@@ -11015,7 +11023,7 @@
       <c r="T82" s="2" t="n">
         <v>2.222222222222222</v>
       </c>
-      <c r="U82" s="10" t="b">
+      <c r="U82" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V82" t="b">
@@ -11398,7 +11406,7 @@
       <c r="T85" s="2" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="U85" s="10" t="b">
+      <c r="U85" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V85" t="b">
@@ -11781,7 +11789,7 @@
       <c r="T88" s="2" t="n">
         <v>2.777777777777778</v>
       </c>
-      <c r="U88" s="10" t="b">
+      <c r="U88" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V88" t="b">
@@ -12797,7 +12805,7 @@
       <c r="T96" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U96" s="10" t="b">
+      <c r="U96" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V96" t="b">
@@ -12924,7 +12932,7 @@
       <c r="T97" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U97" s="10" t="b">
+      <c r="U97" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V97" t="b">
@@ -13178,7 +13186,7 @@
       <c r="T99" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U99" s="10" t="b">
+      <c r="U99" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V99" t="b">
@@ -13305,7 +13313,7 @@
       <c r="T100" s="2" t="n">
         <v>2.777777777777778</v>
       </c>
-      <c r="U100" s="10" t="b">
+      <c r="U100" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V100" t="b">
@@ -13432,7 +13440,7 @@
       <c r="T101" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="U101" s="10" t="b">
+      <c r="U101" s="14" t="b">
         <v>1</v>
       </c>
       <c r="V101" t="b">
@@ -14067,7 +14075,7 @@
       <c r="T106" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="U106" s="9" t="b">
+      <c r="U106" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V106" t="b">
@@ -14194,7 +14202,7 @@
       <c r="T107" t="n">
         <v>0</v>
       </c>
-      <c r="U107" s="9" t="b">
+      <c r="U107" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V107" t="b">
@@ -14321,7 +14329,7 @@
       <c r="T108" t="n">
         <v>0</v>
       </c>
-      <c r="U108" s="9" t="b">
+      <c r="U108" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V108" t="b">
@@ -14448,7 +14456,7 @@
       <c r="T109" t="n">
         <v>2.222222222222222</v>
       </c>
-      <c r="U109" s="9" t="b">
+      <c r="U109" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V109" t="b">
@@ -14575,7 +14583,7 @@
       <c r="T110" t="n">
         <v>0</v>
       </c>
-      <c r="U110" s="9" t="b">
+      <c r="U110" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V110" t="b">
@@ -14702,7 +14710,7 @@
       <c r="T111" t="n">
         <v>0</v>
       </c>
-      <c r="U111" s="9" t="b">
+      <c r="U111" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V111" t="b">
@@ -14829,7 +14837,7 @@
       <c r="T112" t="n">
         <v>0</v>
       </c>
-      <c r="U112" s="9" t="b">
+      <c r="U112" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V112" t="b">
@@ -14956,7 +14964,7 @@
       <c r="T113" t="n">
         <v>0</v>
       </c>
-      <c r="U113" s="9" t="b">
+      <c r="U113" s="13" t="b">
         <v>1</v>
       </c>
       <c r="V113" t="b">
